--- a/medicine/Autisme/Extrêmement_fort_et_incroyablement_près/Extrêmement_fort_et_incroyablement_près.xlsx
+++ b/medicine/Autisme/Extrêmement_fort_et_incroyablement_près/Extrêmement_fort_et_incroyablement_près.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extr%C3%AAmement_fort_et_incroyablement_pr%C3%A8s</t>
+          <t>Extrêmement_fort_et_incroyablement_près</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Extrêmement fort et incroyablement près (titre en anglais original : Extremely Loud and Incredibly Close) est le deuxième roman de l'écrivain américain Jonathan Safran Foer.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extr%C3%AAmement_fort_et_incroyablement_pr%C3%A8s</t>
+          <t>Extrêmement_fort_et_incroyablement_près</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Intrigue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jeune new-yorkais de neuf ans, Oskar Schell, dont le père est mort un an plus tôt dans les attentats du 11 septembre 2001, part à la recherche de la signification d'une clé laissée par son père dans un vase.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extr%C3%AAmement_fort_et_incroyablement_pr%C3%A8s</t>
+          <t>Extrêmement_fort_et_incroyablement_près</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une adaptation au cinéma, du même nom, a été réalisée par Stephen Daldry, avec le jeune Thomas Horn (vainqueur de la version pour enfant du jeu télévisé américain Jeopardy!) dans le rôle principal, Max von Sydow dans le rôle du « locataire », Tom Hanks et Sandra Bullock dans celui des parents, John Goodman dans celui du concierge de l'immeuble, Viola Davis et Jeffrey Wright.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extr%C3%AAmement_fort_et_incroyablement_pr%C3%A8s</t>
+          <t>Extrêmement_fort_et_incroyablement_près</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Comparaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicole Krauss, épouse de l'auteur, publie en 2005 L'Histoire de l'amour, sur un thème proche. Le roman reçoit en 2008 le William Saroyan International Prize for Writing (en).
  Portail de la littérature américaine   Portail de l’autisme                    </t>
